--- a/pred_ohlcv/54_21/2020-01-16 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 BCD ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-152065.26344686</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-144525.83344686</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-143709.16284686</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-167882.98374686</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-167882.98374686</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-164684.98284686</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-162279.38462764</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-162279.38462764</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-164864.48522764</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-165962.02842764</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-164852.09872764</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-166182.32192764</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-177991.08752764</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-177991.08752764</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-177991.08752764</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-177991.08752764</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-177088.29722764</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-177088.29722764</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-179797.87502764</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-179797.87502764</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-181127.48982764</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-179484.40332764</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-174546.73875604</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-175100.52490675</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-173360.78775746</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-173553.42425746</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-176855.53285746</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-175256.78880498</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-175156.78880498</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-175688.86070498</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-175688.86070498</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-175088.86070498</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-171187.29190498</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-171187.29190498</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-171187.29190498</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-169771.37460498</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-168723.81220498</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-168993.11220498</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-168659.05320498</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-169175.07160498</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-208441.44850498</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-244161.5444049799</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-229866.6429049799</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-229866.6429049799</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-228626.6151049799</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-226745.0775049799</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-226775.7429049799</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-226283.1253049799</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-232546.1656049799</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-233641.4410049799</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-233272.2477744099</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-241815.2762744099</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-241695.2762744099</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-241695.2762744099</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-241694.2762744099</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-243700.7479744099</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-243126.2053708299</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-233331.2080708299</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-244566.8573708299</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-246393.6766708299</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-246322.6766708299</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-246360.6598708299</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-251088.3083708299</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-258887.6444708299</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-259534.5952708299</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-293236.3923708299</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-292913.5601708299</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-292016.49557083</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-290282.87187083</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-290282.87187083</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-289781.14637083</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-290355.59757083</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-290355.59757083</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-304439.6923708299</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-305234.64027083</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-308076.23212108</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-309238.72502108</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-309238.72502108</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-309090.22502108</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-309090.22502108</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-309090.22502108</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-309088.22502108</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-309088.22502108</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-309086.25372108</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-309381.77592108</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-308817.42052108</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-309445.53202108</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-309295.53202108</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-309677.4320210801</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-308223.40112108</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-307253.72542108</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-307253.72542108</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-307193.03352108</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-307187.26512108</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-307238.38752108</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-307238.38752108</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-307691.6110210801</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-307701.58602108</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-307445.3487210801</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-307445.3487210801</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-304718.1198210801</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-306187.6705210801</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-306162.1012210801</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-306495.7451210801</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-306157.7451210801</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-305374.1773210801</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-305376.2951210801</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-307217.9880210801</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-307217.9880210801</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-307217.9880210801</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-306836.8880210802</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-306818.8110210802</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-306504.5469210802</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-306035.3469210802</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-305766.8118210802</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-307127.1950210802</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-306669.1592210802</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-307754.1664210802</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-306514.1664210802</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-313944.3104210802</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-313329.2136210802</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-314090.4052210802</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-313782.9052210802</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-314002.2447210802</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-314830.2954210803</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-315142.1028210802</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-313643.7867210803</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-312546.3075210802</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-311897.3075210802</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-312369.3075210802</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-312369.3075210802</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-312150.6135210802</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-312150.6135210802</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-342827.0988837302</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-332602.0988837302</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-338782.4835837302</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-344140.7598837303</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-343654.0204837302</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-343654.0204837302</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-343656.9804837303</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-340318.7142837303</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-336973.6959290102</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-313478.4937290102</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-313397.9697290102</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-304037.7215290103</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>837934.0612963297</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>885197.9559630797</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>921161.9735173297</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>905378.1089715797</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>875149.8983098497</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>817180.3723098497</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>839601.2417098497</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>831577.3176098497</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>831577.3176098497</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>808472.4913615098</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>778428.4936941598</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>740238.8509517798</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>885148.0908181497</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>832360.8504458697</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>838720.6414458697</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>891033.6685609297</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>1163353.10116679</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>1046302.50671954</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>1126291.96062443</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>1270444.23368699</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>1393774.05058772</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>1493682.79878854</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>1668600.66757033</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>1596005.79357033</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>1998449.444109059</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>1946575.428013589</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>1907763.977911039</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>1932435.090201709</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>1989183.356134719</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>1928567.802154909</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>1864052.163940989</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>1815680.524540989</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>1773099.948340989</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>1717239.308864939</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>1586574.663064939</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>1720563.671813859</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>1681281.958418009</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>1622991.913024779</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>1638621.823974259</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>1581829.443874259</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>1551977.45837426</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>1560154.555278489</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>1592126.078099989</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>1987707.89243712</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>1997973.73093065</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>1976485.82801479</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>1948800.80540289</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>1956185.77670289</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>1920814.34574259</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>1889701.69396506</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>1876279.73953672</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>1901682.37557763</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>1893283.67707763</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>1908966.03404996</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>1908966.03404996</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>1906123.99644996</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>1901730.55724996</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>1874549.81524996</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>1879435.77022272</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>1896801.61002272</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>1910078.56143983</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>1919283.78070206</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>1927174.48222768</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>1888626.51062768</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>1881354.45252382</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>1895881.64048794</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>1894256.444152059</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>1889830.43848891</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>1888646.85138891</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>1906702.06716557</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>1904736.3802045</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>1976112.04032368</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>1991792.41937121</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>2019070.82632368</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>2025864.82552368</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>2049656.94908465</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>2079680.8295352</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>2064983.96301198</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>2035848.35735858</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>2048164.39325858</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>2019477.76076426</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>2013896.18513724</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>1999151.57232668</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>1994094.22165952</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>2007532.76016787</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>1992382.05117358</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>1973439.21237358</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>1826552.434324689</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>1836859.1959273</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>1848900.4440273</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>1848900.4440273</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>1838429.390227299</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>1846220.216956449</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>1862670.93027783</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>1875862.219377829</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>1901760.601277829</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>1885086.418976369</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>1913200.461874909</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>1913200.461874909</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>1935319.842974909</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>1963566.890363389</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>1951187.486473319</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>1943258.024144159</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>1903700.322544159</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>1920589.940544159</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>1909122.004744159</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>1905827.002344159</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>1886840.589246769</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>1876324.101846769</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>1850083.727046769</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>1835120.260646769</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>1845530.198546769</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>1847653.696546769</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>1853607.677946769</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>1861485.088946769</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>1870930.361249379</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>1863712.799149379</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>1860093.235549379</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>2504572.287802759</v>
       </c>
       <c r="H1035">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>2420828.471047229</v>
       </c>
       <c r="H1036">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>2453846.922504029</v>
       </c>
       <c r="H1037">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>2429133.754301849</v>
       </c>
       <c r="H1038">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>2380428.934166459</v>
       </c>
       <c r="H1039">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>2392206.262499759</v>
       </c>
       <c r="H1043">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 BCD ohlcv.xlsx
@@ -808,7 +808,7 @@
         <v>-165962.02842764</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-164852.09872764</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-166182.32192764</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-177991.08752764</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-177991.08752764</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-177991.08752764</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-177991.08752764</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-177088.29722764</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-177088.29722764</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-179797.87502764</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-179797.87502764</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-181127.48982764</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-179484.40332764</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-174546.73875604</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-175100.52490675</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-173360.78775746</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-173553.42425746</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-176855.53285746</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-175256.78880498</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-175156.78880498</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-175688.86070498</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-175688.86070498</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-175088.86070498</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-171187.29190498</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-171187.29190498</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-171187.29190498</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-169771.37460498</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-168723.81220498</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-168993.11220498</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-168659.05320498</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-169175.07160498</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-208441.44850498</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-228684.01770498</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-253585.3789049799</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-251263.1955049799</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-229140.7084049799</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-233331.2080708299</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-231807.2588708299</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-231807.2588708299</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-237809.6598708299</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-240582.0409708299</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-240981.2277708299</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-244566.8573708299</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-244584.8573708299</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-246090.6766708299</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-343656.9804837303</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-336973.6959290102</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-313478.4937290102</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-313397.9697290102</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-304037.7215290103</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>837934.0612963297</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>885197.9559630797</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>921161.9735173297</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>905378.1089715797</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>875149.8983098497</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>817180.3723098497</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>839601.2417098497</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>831577.3176098497</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>831577.3176098497</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>808472.4913615098</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>778428.4936941598</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>740238.8509517798</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>885148.0908181497</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>832360.8504458697</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>838720.6414458697</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>891033.6685609297</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>1163353.10116679</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>1046302.50671954</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>1126291.96062443</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>1270444.23368699</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>1393774.05058772</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>1493682.79878854</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>1668600.66757033</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>1596005.79357033</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>1998449.444109059</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>1946575.428013589</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>1907763.977911039</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>1932435.090201709</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>1989183.356134719</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>1928567.802154909</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>1864052.163940989</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>1815680.524540989</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>1773099.948340989</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>1717239.308864939</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>1586574.663064939</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>1633333.265868929</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>1687131.354154049</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>1612608.525060699</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>1592801.886060699</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>1622991.913024779</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>1638621.823974259</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>1581829.443874259</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>1551977.45837426</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>1560154.555278489</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>1592126.078099989</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>1987707.89243712</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>1997973.73093065</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>1976485.82801479</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>1948800.80540289</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>1956185.77670289</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>1920814.34574259</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>1889701.69396506</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>1876279.73953672</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>1901682.37557763</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>1893283.67707763</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>1908966.03404996</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>1908966.03404996</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>1906123.99644996</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>1901730.55724996</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>1874549.81524996</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>1879435.77022272</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>1896801.61002272</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>1910078.56143983</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>1919283.78070206</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>1927174.48222768</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>1888626.51062768</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>1881354.45252382</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>1895881.64048794</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>1894256.444152059</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>1889830.43848891</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>1888646.85138891</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>1906702.06716557</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>1904736.3802045</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>1976112.04032368</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>1991792.41937121</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>2019070.82632368</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>2025864.82552368</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>2049656.94908465</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>2079680.8295352</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>2064983.96301198</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>2035848.35735858</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>2048164.39325858</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>2019477.76076426</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>2013896.18513724</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>1999151.57232668</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>1994094.22165952</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>2007532.76016787</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>1992382.05117358</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>1973439.21237358</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>1826552.434324689</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>1836859.1959273</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>1848900.4440273</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>1848900.4440273</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>1838429.390227299</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>1846220.216956449</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>1862670.93027783</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>1875862.219377829</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>1901760.601277829</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>1885086.418976369</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>1913200.461874909</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>1913200.461874909</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>1935319.842974909</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>1963566.890363389</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>1951187.486473319</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>1943258.024144159</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>1903700.322544159</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>1920589.940544159</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>1909122.004744159</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>1905827.002344159</v>
       </c>
       <c r="H926">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>1886840.589246769</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>1876324.101846769</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>1850083.727046769</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>1835120.260646769</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>1845530.198546769</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>1847653.696546769</v>
       </c>
       <c r="H932">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>1853607.677946769</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>1861485.088946769</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>1870930.361249379</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>1863712.799149379</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>1860093.235549379</v>
       </c>
       <c r="H937">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
